--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-12727/EPBDS-12727/Main.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-12727/EPBDS-12727/Main.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-12727\EPBDS-12727\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F61BB7-1049-48C5-B2BF-336A2B799820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="13730" yWindow="6220" windowWidth="23990" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rules" sheetId="1" r:id="rId4"/>
+    <sheet name="Rules" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
   <si>
     <t>Spreadsheet SpreadsheetResult doMessage()</t>
   </si>
@@ -187,15 +196,9 @@
     <t>_res_.$Step5.$Step1</t>
   </si>
   <si>
-    <t>say.hello</t>
-  </si>
-  <si>
     <t>_res_.$Step5.$Step2</t>
   </si>
   <si>
-    <t>say.hello.1</t>
-  </si>
-  <si>
     <t>_res_.$Step5.$Step3</t>
   </si>
   <si>
@@ -205,13 +208,7 @@
     <t>_res_.$Step5.$Step5</t>
   </si>
   <si>
-    <t>jar.say.hello</t>
-  </si>
-  <si>
     <t>_res_.$Step5.$Step6</t>
-  </si>
-  <si>
-    <t>jar.say.hello.1</t>
   </si>
   <si>
     <t>_res_.$Step5.$Step7</t>
@@ -223,25 +220,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -288,64 +272,117 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Тема Office">
       <a:dk1>
@@ -547,7 +584,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -566,7 +603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -596,7 +633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,7 +659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -648,7 +685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,7 +711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -700,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -778,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -804,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,9 +854,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -836,7 +879,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -855,7 +898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,9 +1145,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1118,7 +1167,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1137,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,32 +1437,42 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
-    <col min="4" max="7" width="26.1719" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="26.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1422,7 +1481,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1431,23 +1490,23 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
+    <row r="3" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2"/>
@@ -1455,12 +1514,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
@@ -1468,12 +1527,12 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
@@ -1481,12 +1540,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2"/>
@@ -1494,12 +1553,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2"/>
@@ -1507,12 +1566,12 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
@@ -1520,12 +1579,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2"/>
@@ -1533,12 +1592,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2"/>
@@ -1546,12 +1605,12 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2"/>
@@ -1559,12 +1618,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2"/>
@@ -1572,12 +1631,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" t="s" s="5">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2"/>
@@ -1585,12 +1644,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
+    <row r="15" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" t="s" s="5">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2"/>
@@ -1598,12 +1657,12 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
+    <row r="16" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s" s="6">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2"/>
@@ -1611,7 +1670,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1620,7 +1679,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
+    <row r="18" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1629,7 +1688,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
+    <row r="19" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1638,7 +1697,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" ht="13.65" customHeight="1">
+    <row r="20" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1647,7 +1706,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
+    <row r="21" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1656,9 +1715,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" ht="13.65" customHeight="1">
+    <row r="22" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" t="s" s="5">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="2"/>
@@ -1667,442 +1726,442 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" ht="13.65" customHeight="1">
+    <row r="23" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" t="s" s="5">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>3</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="24" ht="13.65" customHeight="1">
+    <row r="24" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" t="s" s="5">
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s" s="5">
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="13.65" customHeight="1">
+    <row r="25" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" t="s" s="5">
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s" s="5">
+      <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" t="s" s="5">
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s" s="5">
+      <c r="E25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" t="s" s="5">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s" s="5">
+      <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s" s="8">
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E26" t="s" s="8">
+      <c r="E26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F26" t="s" s="8">
+      <c r="F26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G26" t="s" s="8">
+      <c r="G26" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" ht="13.65" customHeight="1">
+    <row r="27" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" t="s" s="5">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G27" t="s" s="5">
+      <c r="G27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s" s="5">
+      <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D28" t="s" s="8">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E28" t="s" s="8">
+      <c r="E28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s" s="8">
+      <c r="F28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G28" t="s" s="8">
+      <c r="G28" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" ht="13.65" customHeight="1">
+    <row r="29" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D29" t="s" s="5">
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E29" t="s" s="5">
+      <c r="E29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F29" t="s" s="5">
+      <c r="F29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G29" t="s" s="5">
+      <c r="G29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" ht="13.65" customHeight="1">
+    <row r="30" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s" s="5">
+      <c r="E30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G30" t="s" s="5">
+      <c r="G30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" ht="13.65" customHeight="1">
+    <row r="31" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s" s="5">
+      <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s" s="5">
+      <c r="D31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="s" s="5">
+      <c r="E31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F31" t="s" s="5">
+      <c r="F31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G31" t="s" s="5">
+      <c r="G31" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" ht="13.65" customHeight="1">
+    <row r="32" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C32" t="s" s="5">
+      <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D32" t="s" s="5">
+      <c r="D32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E32" t="s" s="5">
+      <c r="E32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G32" t="s" s="5">
+      <c r="G32" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" ht="13.65" customHeight="1">
+    <row r="33" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" t="s" s="5">
+      <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G33" t="s" s="5">
+      <c r="G33" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" ht="13.65" customHeight="1">
+    <row r="34" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" t="s" s="5">
+      <c r="B34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D34" t="s" s="5">
+      <c r="D34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E34" t="s" s="5">
+      <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G34" t="s" s="5">
+      <c r="G34" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" ht="13.65" customHeight="1">
+    <row r="35" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" t="s" s="5">
+      <c r="B35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="s" s="5">
+      <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D35" t="s" s="5">
+      <c r="D35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E35" t="s" s="5">
+      <c r="E35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G35" t="s" s="5">
+      <c r="G35" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" ht="13.65" customHeight="1">
+    <row r="36" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" t="s" s="5">
+      <c r="B36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s" s="5">
+      <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D36" t="s" s="5">
+      <c r="D36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E36" t="s" s="5">
+      <c r="C37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F36" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" ht="13.65" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" t="s" s="5">
+      <c r="D37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="C38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s" s="5">
+      <c r="C39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F37" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="G37" t="s" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" ht="13.65" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" t="s" s="5">
+      <c r="D39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C38" t="s" s="5">
+      <c r="C40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D38" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="E38" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s" s="5">
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C39" t="s" s="5">
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D39" t="s" s="5">
+      <c r="D41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s" s="5">
+      <c r="E41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G39" t="s" s="5">
+      <c r="G41" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" ht="13.65" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s" s="5">
+    <row r="42" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="C42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D40" t="s" s="5">
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E40" t="s" s="5">
+      <c r="C43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F40" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="G40" t="s" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" ht="13.65" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="E41" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="F41" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="G41" t="s" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" ht="13.65" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="E42" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="F42" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" ht="13.65" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s" s="5">
+      <c r="D43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E43" t="s" s="5">
+      <c r="E43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F43" t="s" s="5">
+      <c r="F43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G43" t="s" s="5">
+      <c r="G43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2111,7 +2170,7 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
